--- a/documentation/03_詳細設計/02_API設計/01_ユーザーログイン_API設計書.xlsx
+++ b/documentation/03_詳細設計/02_API設計/01_ユーザーログイン_API設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Java\class\Documentation\OJT Project\03_詳細設計\02_API設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Java\class\Eclipse\ojt-project\documentation\03_詳細設計\02_API設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Data (※Do Not Change)" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$I$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$I$69</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>プロトコル</t>
     <phoneticPr fontId="1"/>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>パス</t>
+  </si>
+  <si>
+    <t>データなし</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,52 +590,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,11 +644,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,9 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.65"/>
   <cols>
@@ -1031,37 +1051,37 @@
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="20.05" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="21.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1093,271 +1113,315 @@
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="21.3">
       <c r="A18" s="14"/>
       <c r="B18" s="9">
         <v>200</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:8" ht="21.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="24">
+      <c r="B19" s="20">
         <v>400</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="21.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="11">
-        <v>500</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="31"/>
+      <c r="B20" s="20">
+        <v>404</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="21.3">
       <c r="A21" s="14"/>
+      <c r="B21" s="11">
+        <v>500</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="21.3">
       <c r="A22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="21.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="21.3">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="21.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="21.3">
       <c r="A27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="21.3">
       <c r="A28" s="14"/>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="21.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="78.3" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="25" t="s">
+    <row r="30" spans="1:8" ht="78.3" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" ht="21.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:8" ht="21.3">
       <c r="A31" s="14"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="16"/>
+      <c r="B31" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="21.3">
       <c r="A32" s="14"/>
-      <c r="B32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="21.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" ht="21.3">
       <c r="A34" s="14"/>
+      <c r="B34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="21.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" ht="21.3">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:8">
+      <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="10" t="s">
+    <row r="38" spans="1:8">
+      <c r="B38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="4" t="s">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="32" t="s">
+    <row r="42" spans="1:8">
+      <c r="B42" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21" t="s">
+      <c r="D42" s="32"/>
+      <c r="E42" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="33" t="s">
+      <c r="F42" s="32"/>
+      <c r="G42" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="13">
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="13">
         <v>200</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C43" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="11"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="43">
+        <v>404</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="43">
+        <v>400</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="43">
+        <v>500</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="11"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
+  <mergeCells count="25">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="E42" location="正常データ!A1" display="正常データシート参考"/>
+    <hyperlink ref="E43" location="正常データ!A1" display="正常データシート参考"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId2"/>
